--- a/medicine/Pharmacie/Classe_ATC_R01/Classe_ATC_R01.xlsx
+++ b/medicine/Pharmacie/Classe_ATC_R01/Classe_ATC_R01.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La classe ATC R01, dénommée « Médicaments pour le nez », est un sous-groupe thérapeutique de la classification anatomique, thérapeutique et chimique, développée par l'OMS pour classer les médicaments et autres produits médicaux[1]. La classe ATC vétérinaire correspondante dans la classification ATCvet est QR01[2]. Le sous-groupe présenté ici est celui établi par l'OMS, et peut donc différer des versions dérivées utilisées dans certains pays. Il fait partie du groupe anatomique R de la classification, intitulé « Système respiratoire ».
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La classe ATC R01, dénommée « Médicaments pour le nez », est un sous-groupe thérapeutique de la classification anatomique, thérapeutique et chimique, développée par l'OMS pour classer les médicaments et autres produits médicaux. La classe ATC vétérinaire correspondante dans la classification ATCvet est QR01. Le sous-groupe présenté ici est celui établi par l'OMS, et peut donc différer des versions dérivées utilisées dans certains pays. Il fait partie du groupe anatomique R de la classification, intitulé « Système respiratoire ».
 </t>
         </is>
       </c>
@@ -513,8 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>R01AA Sympathomimétiques, seuls
-R01AA02 Cyclopentamine
+          <t>R01AA Sympathomimétiques, seuls</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>R01AA02 Cyclopentamine
 R01AA03 Éphédrine
 R01AA04 Phényléphrine
 R01AA05 Oxymétazoline
@@ -527,17 +544,85 @@
 R01AA12 Fénoxazoline
 R01AA13 Tymazoline
 R01AA14 Adrénaline
-R01AA15 Indanazoline
-R01AB Sympathomimétiques, associations sans corticostéroïdes
-R01AB01 Phényléphrine
+R01AA15 Indanazoline</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Classe_ATC_R01</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_R01</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>R01A Décongestionnants et autres préparations nasales pour usage topique</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>R01AB Sympathomimétiques, associations sans corticostéroïdes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>R01AB01 Phényléphrine
 R01AB02 Naphazoline
 R01AB03 Tétryzoline
 R01AB05 Éphédrine
 R01AB06 Xylométazoline
 R01AB07 Oxymétazoline
-R01AB08 Tuaminoheptane
-R01AC Agents antiallergiques, corticostéroïdes exclus
-R01AC01 Acide cromoglicique
+R01AB08 Tuaminoheptane</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Classe_ATC_R01</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_R01</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>R01A Décongestionnants et autres préparations nasales pour usage topique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>R01AC Agents antiallergiques, corticostéroïdes exclus</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>R01AC01 Acide cromoglicique
 R01AC02 Lévocabastine
 R01AC03 Azélastine
 R01AC04 Antazoline
@@ -545,9 +630,43 @@
 R01AC06 Thonzylamine
 R01AC07 Nédocromil
 R01AC08 Olopatadine
-R01AC51 Acide cromoglicique, associations
-R01AD Corticostéroïdes
-R01AD01 Béclométasone
+R01AC51 Acide cromoglicique, associations</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Classe_ATC_R01</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_R01</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>R01A Décongestionnants et autres préparations nasales pour usage topique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>R01AD Corticostéroïdes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>R01AD01 Béclométasone
 R01AD02 Prednisolone
 R01AD03 Dexaméthasone
 R01AD04 Flunisolide
@@ -563,9 +682,43 @@
 R01AD53 Dexaméthasone, associations
 R01AD57 Tixocortol, associations
 R01AD58 Fluticasone, associations
-R01AD60 Hydrocortisone, associations
-R01AX Autres préparations nasales
-R01AX01 Thiocyanate de calcium hexamine
+R01AD60 Hydrocortisone, associations</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Classe_ATC_R01</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_R01</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>R01A Décongestionnants et autres préparations nasales pour usage topique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>R01AX Autres préparations nasales</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>R01AX01 Thiocyanate de calcium hexamine
 R01AX02 Rétinol
 R01AX03 Bromure d'ipratropium
 R01AX05 Ritiométan
@@ -578,34 +731,39 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Classe_ATC_R01</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Pharmacie/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Classe_ATC_R01</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>R01B Décongestionnants nasaux pour usage systémique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>R01BA Sympathomimétiques
-R01BA01 Phénylpropanolamine
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>R01BA Sympathomimétiques</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>R01BA01 Phénylpropanolamine
 R01BA02 Pseudoéphédrine
 R01BA03 Phényléphrine
 R01BA51 Phénylpropanolamine, associations
